--- a/static/core/system/org/importTemplete/角色导入.xlsx
+++ b/static/core/system/org/importTemplete/角色导入.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>角色编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,10 +31,6 @@
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理人员编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -217,12 +213,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -264,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,22 +507,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="13.5" style="2"/>
-    <col min="6" max="16384" width="13.5" style="3"/>
+    <col min="3" max="4" width="13.5" style="2"/>
+    <col min="5" max="16384" width="13.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -531,143 +530,119 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="2">
         <v>100</v>
       </c>
     </row>
